--- a/NiTiErp/wwwroot/templates/TienTrucLe.xlsx
+++ b/NiTiErp/wwwroot/templates/TienTrucLe.xlsx
@@ -526,9 +526,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -547,7 +544,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,7 +834,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B13" sqref="B13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -852,30 +852,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
@@ -884,26 +884,26 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -956,12 +956,8 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="25">
-        <v>8</v>
-      </c>
-      <c r="H10" s="25">
-        <v>9</v>
-      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -971,14 +967,14 @@
         <v>13</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="36">
         <f>SUM(G9:G10)</f>
-        <v>8</v>
-      </c>
-      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
         <f>SUM(H9:H10)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -993,36 +989,36 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
